--- a/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-WWW12.xlsx
+++ b/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-WWW12.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\workingDir\krimp\scholarlyInclusionBiggest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\git\SWKrimpSim\SWPattern\experimentalResults\scholarlyInclusionDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="InclusionComparison" sheetId="6" r:id="rId1"/>
-    <sheet name="outputScholarlyInclusionBiggest" sheetId="1" r:id="rId2"/>
-    <sheet name="InclusionComparison-outdated" sheetId="5" r:id="rId3"/>
-    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId4"/>
-    <sheet name="OriginalMatrix" sheetId="3" r:id="rId5"/>
+    <sheet name="SAC-InclusionComparison-WWW'12" sheetId="7" r:id="rId1"/>
+    <sheet name="InclusionComparison" sheetId="6" r:id="rId2"/>
+    <sheet name="outputScholarlyInclusionBiggest" sheetId="1" r:id="rId3"/>
+    <sheet name="InclusionComparison-outdated" sheetId="5" r:id="rId4"/>
+    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId5"/>
+    <sheet name="OriginalMatrix" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">outputScholarlyInclusionBiggest!$A$1:$G$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">outputScholarlyInclusionBiggest!$A$1:$G$364</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="60">
   <si>
     <t>input</t>
   </si>
@@ -136,37 +137,76 @@
     <t>Ratio with CT</t>
   </si>
   <si>
-    <t>SIB/ekaw-2016-complete.nt-concatenated.nt</t>
+    <t>Property Based (PB)</t>
   </si>
   <si>
-    <t>SIB/eswc-2012-complete.nt-concatenated.nt</t>
+    <t>Property Class Based (PCB)</t>
   </si>
   <si>
-    <t>SIB/eswc-2014-complete.nt-concatenated.nt</t>
+    <t>Difference</t>
   </si>
   <si>
-    <t>SIB/eswc-2015-complete.nt-concatenated.nt</t>
+    <t>EKAW'16</t>
   </si>
   <si>
-    <t>SIB/eswc-2017-complete.nt-concatenated.nt</t>
+    <t>ESWC'12</t>
   </si>
   <si>
-    <t>SIB/iswc-2010-complete.nt-concatenated.nt</t>
+    <t>ESWC'14</t>
   </si>
   <si>
-    <t>SIB/iswc-2012-complete.nt</t>
+    <t>ESWC'15</t>
   </si>
   <si>
-    <t>SIB/iswc-2013-complete.nt-concatenated.nt</t>
+    <t>ESWC'17</t>
   </si>
   <si>
-    <t>SIB/lrec-2008-complete.nt-concatenated.nt</t>
+    <t>ISWC'10</t>
   </si>
   <si>
-    <t>SIB/www-2011-complete.nt-concatenated.nt</t>
+    <t>ISWC'12</t>
   </si>
   <si>
-    <t>SIB/www-2012-complete.nt-concatenated.nt</t>
+    <t>ISWC'13</t>
+  </si>
+  <si>
+    <t>LREC'08</t>
+  </si>
+  <si>
+    <t>WWW'11</t>
+  </si>
+  <si>
+    <t>WWW'12</t>
+  </si>
+  <si>
+    <t>EKAW'16-WWW'12</t>
+  </si>
+  <si>
+    <t>ESWC'12-WWW'12</t>
+  </si>
+  <si>
+    <t>ESWC'14-WWW'12</t>
+  </si>
+  <si>
+    <t>ESWC'15-WWW'12</t>
+  </si>
+  <si>
+    <t>ESWC'17-WWW'12</t>
+  </si>
+  <si>
+    <t>ISWC'10-WWW'12</t>
+  </si>
+  <si>
+    <t>ISWC'12-WWW'12</t>
+  </si>
+  <si>
+    <t>ISWC'13-WWW'12</t>
+  </si>
+  <si>
+    <t>LREC'08-WWW'12</t>
+  </si>
+  <si>
+    <t>WWW'11-WWW'12</t>
   </si>
 </sst>
 </file>
@@ -533,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -683,6 +723,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,7 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -738,10 +806,14 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="5" xfId="41" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,7 +823,27 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="8" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="32" borderId="13" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="13" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1073,10 +1165,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1.0613213706946301</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1.14766310463457</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1.00085110255521</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1.31228097375062</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1.14050265263073</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1.1254697282435</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1.2415060992895799</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1.35240907089144</v>
+      </c>
+      <c r="K2" s="20">
+        <v>1.27430289643372</v>
+      </c>
+      <c r="L2" s="20">
+        <v>1.36360832912459</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.4861336059965899</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1.65332369812906</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1.0010629976310901</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.78184038368033</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1.4736908395491699</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1.5028910422214501</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1.8218194786041599</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1.80742219476884</v>
+      </c>
+      <c r="K4" s="20">
+        <v>1.6033877440144799</v>
+      </c>
+      <c r="L4" s="20">
+        <v>2.2134436270600699</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1.50788373041712</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.14616121245118</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1.2796741244568799</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1.42114337135075</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1.0072253456314599</v>
+      </c>
+      <c r="L7" s="20">
+        <v>1.4443194941181701</v>
+      </c>
+      <c r="M7" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1.63524048057647</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1.92404678639406</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.99527485046880304</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.2890549333902501</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1.95340301516244</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1.5993044060270301</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1.86695694356974</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1.9446483241836701</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.0540201669189999</v>
+      </c>
+      <c r="L9" s="20">
+        <v>2.46094433785857</v>
+      </c>
+      <c r="M9" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1.00719503221153</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3.3123815332088702</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1.0139792936644001</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="22">
+        <v>6.1773465011986497</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1.0091626498466599</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="20">
+        <v>5.1105544672951</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1.01485551496921</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="20">
+        <v>8.2326110425421799</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.99853439201470096</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1.59806594881301</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2.0347162212090502</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1.00609526424068</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2.1767179430638501</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1.0118121895379599</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2.9902867253522798</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1.00609526424068</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2.2296887853905298</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1.0118121895379599</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="20">
+        <v>3.05083084742729</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1.01109382379331</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1.4269116417440699</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1.0126024593057701</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1.8218500123978001</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1.0185065830336799</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.95897133997159101</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="20">
+        <v>1.0453600977942401</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1.00785494520957</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1.09558314523105</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1.0165202787838801</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1.1840172364202</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1.00234177429979</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1.8502904424759501</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="20">
+        <v>2.2687982210293001</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1.00234177429979</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1.67825707149527</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1.9588837622425499</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:I24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:M9">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M20" sqref="C19:M20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,10 +2024,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C2">
@@ -1163,13 +2060,13 @@
       <c r="L2">
         <v>1.36360832912459</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="10">
         <v>0.11095774090072801</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C3">
@@ -1202,7 +2099,7 @@
       <c r="L3">
         <v>1.40352210657403</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="10">
         <v>0.11095774090072801</v>
       </c>
     </row>
@@ -1245,10 +2142,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C5">
@@ -1281,13 +2178,13 @@
       <c r="L5">
         <v>2.2134436270600699</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <v>0.11095774090072801</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C6">
@@ -1320,7 +2217,7 @@
       <c r="L6">
         <v>2.33726350866865</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="10">
         <v>0.11095774090072801</v>
       </c>
     </row>
@@ -1364,10 +2261,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
@@ -1400,13 +2297,13 @@
       <c r="L9">
         <v>1.4443194941181701</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C10">
@@ -1439,7 +2336,7 @@
       <c r="L10">
         <v>1.4848478826595799</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
@@ -1482,10 +2379,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C12">
@@ -1518,13 +2415,13 @@
       <c r="L12">
         <v>2.46094433785857</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C13">
@@ -1557,7 +2454,7 @@
       <c r="L13">
         <v>2.5924641604806</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
@@ -1601,10 +2498,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C16">
@@ -1637,13 +2534,13 @@
       <c r="L16">
         <v>1.3843414991334999</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17">
@@ -1676,7 +2573,7 @@
       <c r="L17">
         <v>1.41693013008906</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
     </row>
@@ -1719,10 +2616,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C19">
@@ -1755,13 +2652,13 @@
       <c r="L19">
         <v>2.2024647001011699</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C20">
@@ -1794,58 +2691,58 @@
       <c r="L20">
         <v>2.2972874480804899</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="15"/>
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="I22" s="12" t="s">
+      <c r="F22" s="15"/>
+      <c r="I22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="L22" s="12" t="s">
+      <c r="J22" s="15"/>
+      <c r="L22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="13"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>1.00719503221153</v>
@@ -1863,7 +2760,7 @@
         <v>3.85443056691898</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>1.0139792936644001</v>
@@ -1883,7 +2780,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>0.99853439201470096</v>
@@ -1901,7 +2798,7 @@
         <v>1.59480726185304</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>1.0027268875183699</v>
@@ -1921,7 +2818,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1.00609526424068</v>
@@ -1939,7 +2836,7 @@
         <v>2.1684981320076</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I26">
         <v>1.0118121895379599</v>
@@ -1959,7 +2856,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>1.00609526424068</v>
@@ -1977,7 +2874,7 @@
         <v>2.22014962030324</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <v>1.0118121895379599</v>
@@ -1997,7 +2894,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>1.0091626498466599</v>
@@ -2015,7 +2912,7 @@
         <v>5.6836363017774003</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>1.01485551496921</v>
@@ -2035,7 +2932,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>1.01109382379331</v>
@@ -2053,7 +2950,7 @@
         <v>1.71090919411678</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>1.0126024593057701</v>
@@ -2073,7 +2970,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>1.0185065830336799</v>
@@ -2091,7 +2988,7 @@
         <v>2.05070274350556</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I30">
         <v>1.0027268875183699</v>
@@ -2111,7 +3008,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>1.00785494520957</v>
@@ -2129,7 +3026,7 @@
         <v>1.9355433251654299</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>1.0165202787838801</v>
@@ -2149,7 +3046,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>1.00234177429979</v>
@@ -2167,7 +3064,7 @@
         <v>4.1292839275397704</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I32">
         <v>1.0027268875183699</v>
@@ -2187,7 +3084,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>1.00234177429979</v>
@@ -2205,7 +3102,7 @@
         <v>2.0485167733241698</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2225,69 +3122,69 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="14">
+        <v>20</v>
+      </c>
+      <c r="B34" s="10">
         <v>0.11095774090072801</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="10">
         <v>0.11095774090072801</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="10">
         <v>0.11095774090072801</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="10">
         <v>0.11095774090072801</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="14">
+        <v>20</v>
+      </c>
+      <c r="I34" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="10">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="15"/>
+      <c r="E36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>1.0118223686925401</v>
@@ -2307,7 +3204,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>1.0073780913242001</v>
@@ -2327,7 +3224,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>1.01178775391664</v>
@@ -2347,7 +3244,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>1.01183325804285</v>
@@ -2367,7 +3264,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>1.01268245637152</v>
@@ -2387,7 +3284,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>1.01080749251158</v>
@@ -2407,7 +3304,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>1.0021104456990899</v>
@@ -2427,7 +3324,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>1.0095205617565799</v>
@@ -2447,7 +3344,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0.997938991896688</v>
@@ -2467,7 +3364,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>1.00120739460856</v>
@@ -2487,21 +3384,21 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="14">
+        <v>20</v>
+      </c>
+      <c r="B48" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="10">
         <v>7.1597298527922001E-2</v>
       </c>
     </row>
@@ -2513,458 +3410,18 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H3 J2:M3">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C29 B31:C33">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N13">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N20">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:L3">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H10 J9:M10">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:L10">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:H17 J16:M17">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:L17">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C33">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C34">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M3">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:M10">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:M17">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J29 I31:J33">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:J34">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J33">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J34">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C43 B45:C47">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C47">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C48">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F29 E31:F33">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:F34">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F33">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F34">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M29 L31:M33">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:M34">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M33">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M34">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F43 E49:F49 E45:F47">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F47 E49:F49">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F49">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:H6 J5:M6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:M6">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:H13 J12:M13">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:M13">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:H20 J19:M20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:L20">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:M20">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G364"/>
@@ -11368,7 +11825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
@@ -13458,7 +13915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
@@ -14876,7 +15333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>

--- a/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-WWW12.xlsx
+++ b/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-WWW12.xlsx
@@ -12,22 +12,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="SAC-InclusionComparison-WWW'12" sheetId="7" r:id="rId1"/>
-    <sheet name="InclusionComparison" sheetId="6" r:id="rId2"/>
-    <sheet name="outputScholarlyInclusionBiggest" sheetId="1" r:id="rId3"/>
-    <sheet name="InclusionComparison-outdated" sheetId="5" r:id="rId4"/>
-    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId5"/>
-    <sheet name="OriginalMatrix" sheetId="3" r:id="rId6"/>
+    <sheet name="InclusionTest-WWW12-PB" sheetId="10" r:id="rId1"/>
+    <sheet name="InclusionTest-WWW12-PCB" sheetId="11" r:id="rId2"/>
+    <sheet name="SAC-InclusionTest-WWW12-PB" sheetId="8" r:id="rId3"/>
+    <sheet name="SAC-InclusionTest-WWW12-PCB" sheetId="9" r:id="rId4"/>
+    <sheet name="SAC-InclusionComparison-WWW'12" sheetId="7" r:id="rId5"/>
+    <sheet name="InclusionComparison" sheetId="6" r:id="rId6"/>
+    <sheet name="outputScholarlyInclusionBiggest" sheetId="1" r:id="rId7"/>
+    <sheet name="InclusionComparison-outdated" sheetId="5" r:id="rId8"/>
+    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId9"/>
+    <sheet name="OriginalMatrix" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">outputScholarlyInclusionBiggest!$A$1:$G$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">outputScholarlyInclusionBiggest!$A$1:$G$364</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="74">
   <si>
     <t>input</t>
   </si>
@@ -143,9 +147,6 @@
     <t>Property Class Based (PCB)</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>EKAW'16</t>
   </si>
   <si>
@@ -207,6 +208,51 @@
   </si>
   <si>
     <t>WWW'11-WWW'12</t>
+  </si>
+  <si>
+    <t>KRIMP Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Property Based (PB) [WWW'12 &lt;= *]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Property Based (PB) [* &lt;= WWW'12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Property Class Based (PCB) [WWW'12 &lt;= *]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Property Class Based (PCB) [* &lt;= WWW'12]</t>
+  </si>
+  <si>
+    <t>EKAW'16+Ref</t>
+  </si>
+  <si>
+    <t>ESWC'17+Ref</t>
+  </si>
+  <si>
+    <t>ESWC'12+Ref</t>
+  </si>
+  <si>
+    <t>ESWC'14+Ref</t>
+  </si>
+  <si>
+    <t>ESWC'15+Ref</t>
+  </si>
+  <si>
+    <t>ISWC'10+Ref</t>
+  </si>
+  <si>
+    <t>ISWC'12+Ref</t>
+  </si>
+  <si>
+    <t>ISWC'13+Ref</t>
+  </si>
+  <si>
+    <t>LREC'08+Ref</t>
+  </si>
+  <si>
+    <t>WWW'11+Ref</t>
   </si>
 </sst>
 </file>
@@ -796,7 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -811,6 +857,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="32" borderId="13" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="32" borderId="13" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="13" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,25 +906,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="32" borderId="13" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="34" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="13" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,10 +1230,2197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.4861336059965899</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.0613213706946301</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3.3123815332088702</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1.00719503221153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1.65332369812906</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1.14766310463457</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="15">
+        <v>5.1105544672951</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1.0091626498466599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1.0010629976310901</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.00085110255521</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.59806594881301</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.99853439201470096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1.78184038368033</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1.31228097375062</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2.1767179430638501</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1.00609526424068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1.4736908395491699</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.14050265263073</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2.2296887853905298</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1.00609526424068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.5028910422214501</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.1254697282435</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.4269116417440699</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1.01109382379331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1.8218194786041599</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.2415060992895799</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.95897133997159101</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1.0185065830336799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1.80742219476884</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1.35240907089144</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.09558314523105</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1.00785494520957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1.6033877440144799</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.27430289643372</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.8502904424759501</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1.00234177429979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2.2134436270600699</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.36360832912459</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.67825707149527</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.00234177429979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:I11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="A1:L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.12112478224892401</v>
+      </c>
+      <c r="C2">
+        <v>1.0097535898273799</v>
+      </c>
+      <c r="D2">
+        <v>1.31568642682069</v>
+      </c>
+      <c r="E2">
+        <v>1.1494266169121901</v>
+      </c>
+      <c r="F2">
+        <v>1.0714740072906299</v>
+      </c>
+      <c r="G2">
+        <v>1.1189452346676501</v>
+      </c>
+      <c r="H2">
+        <v>1.2483199658644499</v>
+      </c>
+      <c r="I2">
+        <v>1.3491669863678499</v>
+      </c>
+      <c r="J2">
+        <v>0.99881746738023702</v>
+      </c>
+      <c r="K2">
+        <v>1.3554094423813901</v>
+      </c>
+      <c r="L2">
+        <v>1.00719503221153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.08940544037084</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.108743468680546</v>
+      </c>
+      <c r="D3">
+        <v>1.3119765128634999</v>
+      </c>
+      <c r="E3">
+        <v>1.16252468956008</v>
+      </c>
+      <c r="F3">
+        <v>1.2006240101066601</v>
+      </c>
+      <c r="G3">
+        <v>1.1252353379497499</v>
+      </c>
+      <c r="H3">
+        <v>1.2407637611812801</v>
+      </c>
+      <c r="I3">
+        <v>1.35153398297327</v>
+      </c>
+      <c r="J3">
+        <v>1.2735093447042201</v>
+      </c>
+      <c r="K3">
+        <v>1.3632557457315699</v>
+      </c>
+      <c r="L3">
+        <v>0.99853439201470096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1.0971328410789101</v>
+      </c>
+      <c r="C4">
+        <v>1.0058080680641399</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.112616867788377</v>
+      </c>
+      <c r="E4">
+        <v>1.1255001710446699</v>
+      </c>
+      <c r="F4">
+        <v>1.20233837806239</v>
+      </c>
+      <c r="G4">
+        <v>1.0847509530750099</v>
+      </c>
+      <c r="H4">
+        <v>1.2502108530086</v>
+      </c>
+      <c r="I4">
+        <v>1.3600628308537399</v>
+      </c>
+      <c r="J4">
+        <v>1.27853049823175</v>
+      </c>
+      <c r="K4">
+        <v>1.1209698295263899</v>
+      </c>
+      <c r="L4">
+        <v>1.00609526424068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1.09424532561826</v>
+      </c>
+      <c r="C5">
+        <v>1.00361444475275</v>
+      </c>
+      <c r="D5">
+        <v>1.13467478990727</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.111321183415761</v>
+      </c>
+      <c r="F5">
+        <v>1.1849046819643201</v>
+      </c>
+      <c r="G5">
+        <v>1.09521962742767</v>
+      </c>
+      <c r="H5">
+        <v>1.2502108530086</v>
+      </c>
+      <c r="I5">
+        <v>1.3600628308537399</v>
+      </c>
+      <c r="J5">
+        <v>1.27853049823175</v>
+      </c>
+      <c r="K5">
+        <v>1.1628704619933901</v>
+      </c>
+      <c r="L5">
+        <v>1.00609526424068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1.0900959580473899</v>
+      </c>
+      <c r="C6">
+        <v>1.0164687151759699</v>
+      </c>
+      <c r="D6">
+        <v>1.35506954916946</v>
+      </c>
+      <c r="E6">
+        <v>1.1755522795867399</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.121597133178743</v>
+      </c>
+      <c r="G6">
+        <v>1.1185513284803099</v>
+      </c>
+      <c r="H6">
+        <v>1.1994894034247801</v>
+      </c>
+      <c r="I6">
+        <v>1.31397027675738</v>
+      </c>
+      <c r="J6">
+        <v>0.999879051586818</v>
+      </c>
+      <c r="K6">
+        <v>1.3550206661004001</v>
+      </c>
+      <c r="L6">
+        <v>1.0091626498466599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1.0689621278297601</v>
+      </c>
+      <c r="C7">
+        <v>1.01530361932283</v>
+      </c>
+      <c r="D7">
+        <v>1.1539323143551401</v>
+      </c>
+      <c r="E7">
+        <v>1.14831096053905</v>
+      </c>
+      <c r="F7">
+        <v>1.1532607584157499</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.119226459965633</v>
+      </c>
+      <c r="H7">
+        <v>1.2489923332515001</v>
+      </c>
+      <c r="I7">
+        <v>1.3581473424756101</v>
+      </c>
+      <c r="J7">
+        <v>1.28036672822914</v>
+      </c>
+      <c r="K7">
+        <v>1.0153308545759101</v>
+      </c>
+      <c r="L7">
+        <v>1.01109382379331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1.0686585406112701</v>
+      </c>
+      <c r="C8">
+        <v>1.0146758049289399</v>
+      </c>
+      <c r="D8">
+        <v>1.1626753412358799</v>
+      </c>
+      <c r="E8">
+        <v>1.1527645342983199</v>
+      </c>
+      <c r="F8">
+        <v>1.11346713385131</v>
+      </c>
+      <c r="G8">
+        <v>1.1149235231082999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.123233644849397</v>
+      </c>
+      <c r="I8">
+        <v>1.07739463291822</v>
+      </c>
+      <c r="J8">
+        <v>1.14153754733469</v>
+      </c>
+      <c r="K8">
+        <v>1.1234634936594901</v>
+      </c>
+      <c r="L8">
+        <v>1.0185065830336799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.06031984762221</v>
+      </c>
+      <c r="C9">
+        <v>1.00984612497683</v>
+      </c>
+      <c r="D9">
+        <v>1.15581757739604</v>
+      </c>
+      <c r="E9">
+        <v>1.1516046654654599</v>
+      </c>
+      <c r="F9">
+        <v>1.102026302788</v>
+      </c>
+      <c r="G9">
+        <v>1.08140087915559</v>
+      </c>
+      <c r="H9">
+        <v>1.00137773962732</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.13016201393430399</v>
+      </c>
+      <c r="J9">
+        <v>1.1319886969448001</v>
+      </c>
+      <c r="K9">
+        <v>1.1155807200180901</v>
+      </c>
+      <c r="L9">
+        <v>1.00785494520957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1.0619130878632601</v>
+      </c>
+      <c r="C10">
+        <v>1.0076045072128601</v>
+      </c>
+      <c r="D10">
+        <v>1.40392829526476</v>
+      </c>
+      <c r="E10">
+        <v>1.1417059451052201</v>
+      </c>
+      <c r="F10">
+        <v>1.14626320292381</v>
+      </c>
+      <c r="G10">
+        <v>1.1197027836943401</v>
+      </c>
+      <c r="H10">
+        <v>1.2421199054024501</v>
+      </c>
+      <c r="I10">
+        <v>1.3523781885891999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.11181512364396599</v>
+      </c>
+      <c r="K10">
+        <v>1.39704205707632</v>
+      </c>
+      <c r="L10">
+        <v>1.00234177429979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1.0619130878632601</v>
+      </c>
+      <c r="C11">
+        <v>1.0076045072128601</v>
+      </c>
+      <c r="D11">
+        <v>1.1849226365818399</v>
+      </c>
+      <c r="E11">
+        <v>1.1417059451052201</v>
+      </c>
+      <c r="F11">
+        <v>1.14626320292381</v>
+      </c>
+      <c r="G11">
+        <v>1.00537513113071</v>
+      </c>
+      <c r="H11">
+        <v>1.24188522191726</v>
+      </c>
+      <c r="I11">
+        <v>1.3523781885891999</v>
+      </c>
+      <c r="J11">
+        <v>1.0659250167371901</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.115859119470386</v>
+      </c>
+      <c r="L11">
+        <v>1.00234177429979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.0613213706946301</v>
+      </c>
+      <c r="C12">
+        <v>1.00085110255521</v>
+      </c>
+      <c r="D12">
+        <v>1.31228097375062</v>
+      </c>
+      <c r="E12">
+        <v>1.14050265263073</v>
+      </c>
+      <c r="F12">
+        <v>1.14766310463457</v>
+      </c>
+      <c r="G12">
+        <v>1.1254697282435</v>
+      </c>
+      <c r="H12">
+        <v>1.2415060992895799</v>
+      </c>
+      <c r="I12">
+        <v>1.35240907089144</v>
+      </c>
+      <c r="J12">
+        <v>1.27430289643372</v>
+      </c>
+      <c r="K12">
+        <v>1.36360832912459</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.0745943036005093E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.0154477061976199</v>
+      </c>
+      <c r="D15">
+        <v>1.5499743813932401</v>
+      </c>
+      <c r="E15">
+        <v>1.2581292748637301</v>
+      </c>
+      <c r="F15">
+        <v>1.1984150186445099</v>
+      </c>
+      <c r="G15">
+        <v>1.1388763896340199</v>
+      </c>
+      <c r="H15">
+        <v>1.2953372883015599</v>
+      </c>
+      <c r="I15">
+        <v>1.42882798061488</v>
+      </c>
+      <c r="J15">
+        <v>1.0154918155604999</v>
+      </c>
+      <c r="K15">
+        <v>1.4449977014447799</v>
+      </c>
+      <c r="L15">
+        <v>1.0139792936644001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1.1341740139035399</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.3531198394911698E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.5113820750209099</v>
+      </c>
+      <c r="E16">
+        <v>1.3068308263488999</v>
+      </c>
+      <c r="F16">
+        <v>1.3380080867619699</v>
+      </c>
+      <c r="G16">
+        <v>1.1465064479037399</v>
+      </c>
+      <c r="H16">
+        <v>1.2826767556482499</v>
+      </c>
+      <c r="I16">
+        <v>1.42507935989609</v>
+      </c>
+      <c r="J16">
+        <v>1.00747374154101</v>
+      </c>
+      <c r="K16">
+        <v>1.44799953400813</v>
+      </c>
+      <c r="L16">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1.1408214604757301</v>
+      </c>
+      <c r="C17">
+        <v>1.0063291074767999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.5679711828177903E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.1601575445986601</v>
+      </c>
+      <c r="F17">
+        <v>1.35187728906547</v>
+      </c>
+      <c r="G17">
+        <v>1.09330655736197</v>
+      </c>
+      <c r="H17">
+        <v>1.29275881904934</v>
+      </c>
+      <c r="I17">
+        <v>1.4358232111593201</v>
+      </c>
+      <c r="J17">
+        <v>1.01331319403774</v>
+      </c>
+      <c r="K17">
+        <v>1.1253348840482</v>
+      </c>
+      <c r="L17">
+        <v>1.0118121895379599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1.1313205783092</v>
+      </c>
+      <c r="C18">
+        <v>1.00415648416188</v>
+      </c>
+      <c r="D18">
+        <v>1.23555281427816</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.5861886704089406E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.32452025947983</v>
+      </c>
+      <c r="G18">
+        <v>1.1062967234046599</v>
+      </c>
+      <c r="H18">
+        <v>1.29307705895443</v>
+      </c>
+      <c r="I18">
+        <v>1.4351020907425101</v>
+      </c>
+      <c r="J18">
+        <v>1.01288870608446</v>
+      </c>
+      <c r="K18">
+        <v>1.1681389789854499</v>
+      </c>
+      <c r="L18">
+        <v>1.0118121895379599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1.25844045479009</v>
+      </c>
+      <c r="C19">
+        <v>1.0206105585090299</v>
+      </c>
+      <c r="D19">
+        <v>1.5651455566847701</v>
+      </c>
+      <c r="E19">
+        <v>1.32562018857066</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6.9010657722859303E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.13928758690344</v>
+      </c>
+      <c r="H19">
+        <v>1.29577237808517</v>
+      </c>
+      <c r="I19">
+        <v>1.44036982800155</v>
+      </c>
+      <c r="J19">
+        <v>1.0159625126891001</v>
+      </c>
+      <c r="K19">
+        <v>1.4454053091688199</v>
+      </c>
+      <c r="L19">
+        <v>1.01485551496921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1.10799672534755</v>
+      </c>
+      <c r="C20">
+        <v>1.01040730475044</v>
+      </c>
+      <c r="D20">
+        <v>1.25746371365659</v>
+      </c>
+      <c r="E20">
+        <v>1.2893376873306801</v>
+      </c>
+      <c r="F20">
+        <v>1.2801606371352501</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.9280965520700705E-2</v>
+      </c>
+      <c r="H20">
+        <v>1.28894209404427</v>
+      </c>
+      <c r="I20">
+        <v>1.42938290338653</v>
+      </c>
+      <c r="J20">
+        <v>1.01271433850597</v>
+      </c>
+      <c r="K20">
+        <v>1.0098060371781199</v>
+      </c>
+      <c r="L20">
+        <v>1.0126024593057701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>1.07118972572255</v>
+      </c>
+      <c r="C21">
+        <v>0.99966952441855905</v>
+      </c>
+      <c r="D21">
+        <v>1.32051409799256</v>
+      </c>
+      <c r="E21">
+        <v>1.28390637572248</v>
+      </c>
+      <c r="F21">
+        <v>1.0903654706754999</v>
+      </c>
+      <c r="G21">
+        <v>1.0771804687222599</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7.0869873069050696E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.10658109124479</v>
+      </c>
+      <c r="J21">
+        <v>1.0077620383524799</v>
+      </c>
+      <c r="K21">
+        <v>1.1495027342733299</v>
+      </c>
+      <c r="L21">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1.09959688045138</v>
+      </c>
+      <c r="C22">
+        <v>1.01887061219159</v>
+      </c>
+      <c r="D22">
+        <v>1.39562942299828</v>
+      </c>
+      <c r="E22">
+        <v>1.30011905038522</v>
+      </c>
+      <c r="F22">
+        <v>1.1913824507487401</v>
+      </c>
+      <c r="G22">
+        <v>1.0972938362024001</v>
+      </c>
+      <c r="H22">
+        <v>1.01579620475087</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7.5426731112043802E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.0057632013717701</v>
+      </c>
+      <c r="K22">
+        <v>1.1643363644432501</v>
+      </c>
+      <c r="L22">
+        <v>1.0165202787838801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>1.1041228978508499</v>
+      </c>
+      <c r="C23">
+        <v>0.99875325398909698</v>
+      </c>
+      <c r="D23">
+        <v>1.41178376468588</v>
+      </c>
+      <c r="E23">
+        <v>1.2066985156060499</v>
+      </c>
+      <c r="F23">
+        <v>1.2794366888561299</v>
+      </c>
+      <c r="G23">
+        <v>1.1465064479037399</v>
+      </c>
+      <c r="H23">
+        <v>1.2821881550255601</v>
+      </c>
+      <c r="I23">
+        <v>1.4253917399893199</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6.3402185350906998E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.4899554042393399</v>
+      </c>
+      <c r="L23">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="C24">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="D24">
+        <v>1.25069861790796</v>
+      </c>
+      <c r="E24">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="F24">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="G24">
+        <v>1.00665901818162</v>
+      </c>
+      <c r="H24">
+        <v>1.2811263391200201</v>
+      </c>
+      <c r="I24">
+        <v>1.42298566547906</v>
+      </c>
+      <c r="J24">
+        <v>1.0776294040871901</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6.6772912866898196E-2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="C25">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="D25">
+        <v>1.50788373041712</v>
+      </c>
+      <c r="E25">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="F25">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="G25">
+        <v>1.14616121245118</v>
+      </c>
+      <c r="H25">
+        <v>1.2796741244568799</v>
+      </c>
+      <c r="I25">
+        <v>1.42114337135075</v>
+      </c>
+      <c r="J25">
+        <v>1.0072253456314599</v>
+      </c>
+      <c r="K25">
+        <v>1.4443194941181701</v>
+      </c>
+      <c r="L25" s="3">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7.5787050609715204E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.02676358858496</v>
+      </c>
+      <c r="D28">
+        <v>1.48488183343358</v>
+      </c>
+      <c r="E28">
+        <v>1.2272107221484001</v>
+      </c>
+      <c r="F28">
+        <v>1.21946614887923</v>
+      </c>
+      <c r="G28">
+        <v>1.1306496899134499</v>
+      </c>
+      <c r="H28">
+        <v>1.23856433576228</v>
+      </c>
+      <c r="I28">
+        <v>1.35711802499709</v>
+      </c>
+      <c r="J28">
+        <v>1.0295376173511701</v>
+      </c>
+      <c r="K28">
+        <v>1.38925041573123</v>
+      </c>
+      <c r="L28">
+        <v>1.0118223686925401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>1.2113948516261701</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.3063997233869193E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.4528854558973201</v>
+      </c>
+      <c r="E29">
+        <v>1.27554004164617</v>
+      </c>
+      <c r="F29">
+        <v>1.4910375004803</v>
+      </c>
+      <c r="G29">
+        <v>1.1319384679367701</v>
+      </c>
+      <c r="H29">
+        <v>1.2385398405824599</v>
+      </c>
+      <c r="I29">
+        <v>1.3632671875262199</v>
+      </c>
+      <c r="J29">
+        <v>1.21096658348256</v>
+      </c>
+      <c r="K29">
+        <v>1.3843165228974701</v>
+      </c>
+      <c r="L29">
+        <v>1.0073780913242001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>1.2170809128895801</v>
+      </c>
+      <c r="C30">
+        <v>0.99921242651813402</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7.4315501300696904E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.1368614102430199</v>
+      </c>
+      <c r="F30">
+        <v>1.5057121404653599</v>
+      </c>
+      <c r="G30">
+        <v>1.08012556602634</v>
+      </c>
+      <c r="H30">
+        <v>1.23850279139297</v>
+      </c>
+      <c r="I30">
+        <v>1.3642846453208799</v>
+      </c>
+      <c r="J30">
+        <v>1.03938622814708</v>
+      </c>
+      <c r="K30">
+        <v>1.1038518186341599</v>
+      </c>
+      <c r="L30">
+        <v>1.01178775391664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.2055242950829801</v>
+      </c>
+      <c r="C31">
+        <v>0.99746618123259401</v>
+      </c>
+      <c r="D31">
+        <v>1.21234285160785</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7.3813815923523804E-2</v>
+      </c>
+      <c r="F31">
+        <v>1.4801201934756201</v>
+      </c>
+      <c r="G31">
+        <v>1.0912039132817499</v>
+      </c>
+      <c r="H31">
+        <v>1.2391971825173</v>
+      </c>
+      <c r="I31">
+        <v>1.3646039485109001</v>
+      </c>
+      <c r="J31">
+        <v>1.03918536470164</v>
+      </c>
+      <c r="K31">
+        <v>1.13878066782731</v>
+      </c>
+      <c r="L31">
+        <v>1.01183325804285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>1.2871678322111599</v>
+      </c>
+      <c r="C32">
+        <v>1.0192635492092901</v>
+      </c>
+      <c r="D32">
+        <v>1.4707478998701899</v>
+      </c>
+      <c r="E32">
+        <v>1.28193895853753</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7.1862323706397294E-2</v>
+      </c>
+      <c r="G32">
+        <v>1.1256324842510601</v>
+      </c>
+      <c r="H32">
+        <v>1.3365839991828301</v>
+      </c>
+      <c r="I32">
+        <v>1.45172811623641</v>
+      </c>
+      <c r="J32">
+        <v>1.1490250021533299</v>
+      </c>
+      <c r="K32">
+        <v>1.3824132623418299</v>
+      </c>
+      <c r="L32">
+        <v>1.01268245637152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>1.17275984825244</v>
+      </c>
+      <c r="C33">
+        <v>1.01631871127591</v>
+      </c>
+      <c r="D33">
+        <v>1.23684232208754</v>
+      </c>
+      <c r="E33">
+        <v>1.25300273155032</v>
+      </c>
+      <c r="F33">
+        <v>1.3762948153586301</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7.7740263249035504E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.2336712001901999</v>
+      </c>
+      <c r="I33">
+        <v>1.35886791799678</v>
+      </c>
+      <c r="J33">
+        <v>1.02761058901227</v>
+      </c>
+      <c r="K33">
+        <v>1.0064783926897201</v>
+      </c>
+      <c r="L33">
+        <v>1.01080749251158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>1.1509089651744</v>
+      </c>
+      <c r="C34">
+        <v>1.0564663559244201</v>
+      </c>
+      <c r="D34">
+        <v>1.2836162499016901</v>
+      </c>
+      <c r="E34">
+        <v>1.24396787043205</v>
+      </c>
+      <c r="F34">
+        <v>1.2666114024981701</v>
+      </c>
+      <c r="G34">
+        <v>1.1215490951392799</v>
+      </c>
+      <c r="H34" s="3">
+        <v>8.0462982471179695E-2</v>
+      </c>
+      <c r="I34">
+        <v>1.0922031231106899</v>
+      </c>
+      <c r="J34">
+        <v>1.0257412799875201</v>
+      </c>
+      <c r="K34">
+        <v>1.2009088172328899</v>
+      </c>
+      <c r="L34">
+        <v>1.0021104456990899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>1.14075556294467</v>
+      </c>
+      <c r="C35">
+        <v>1.0683951743348901</v>
+      </c>
+      <c r="D35">
+        <v>1.3438268235533199</v>
+      </c>
+      <c r="E35">
+        <v>1.25397362551969</v>
+      </c>
+      <c r="F35">
+        <v>1.20598795660119</v>
+      </c>
+      <c r="G35">
+        <v>1.10962068322689</v>
+      </c>
+      <c r="H35">
+        <v>1.00877016240898</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8.4572539252841902E-2</v>
+      </c>
+      <c r="J35">
+        <v>1.0122918480168499</v>
+      </c>
+      <c r="K35">
+        <v>1.18375909362354</v>
+      </c>
+      <c r="L35">
+        <v>1.0095205617565799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>1.3277918335429999</v>
+      </c>
+      <c r="C36">
+        <v>1.3786417935570801</v>
+      </c>
+      <c r="D36">
+        <v>2.24950269350912</v>
+      </c>
+      <c r="E36">
+        <v>1.72823646908283</v>
+      </c>
+      <c r="F36">
+        <v>1.76915760414458</v>
+      </c>
+      <c r="G36">
+        <v>1.3530347841916499</v>
+      </c>
+      <c r="H36">
+        <v>1.60559997857523</v>
+      </c>
+      <c r="I36">
+        <v>1.8655327455412101</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7.0445368670496097E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.6569763638422199</v>
+      </c>
+      <c r="L36">
+        <v>0.997938991896688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1.16390283531199</v>
+      </c>
+      <c r="C37">
+        <v>1.0088062825547499</v>
+      </c>
+      <c r="D37">
+        <v>1.2296237474780201</v>
+      </c>
+      <c r="E37">
+        <v>1.2451786110399301</v>
+      </c>
+      <c r="F37">
+        <v>1.36713521623488</v>
+      </c>
+      <c r="G37">
+        <v>1.00871197725413</v>
+      </c>
+      <c r="H37">
+        <v>1.22638611327309</v>
+      </c>
+      <c r="I37">
+        <v>1.35152103955322</v>
+      </c>
+      <c r="J37">
+        <v>1.0787488064191499</v>
+      </c>
+      <c r="K37" s="3">
+        <v>7.59619168983688E-2</v>
+      </c>
+      <c r="L37">
+        <v>1.00120739460856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>1.1653820094548399</v>
+      </c>
+      <c r="C38">
+        <v>1.0152992377199099</v>
+      </c>
+      <c r="D38">
+        <v>1.4523029850212099</v>
+      </c>
+      <c r="E38">
+        <v>1.2521185095392899</v>
+      </c>
+      <c r="F38">
+        <v>1.3714392573166301</v>
+      </c>
+      <c r="G38">
+        <v>1.13295339549023</v>
+      </c>
+      <c r="H38">
+        <v>1.2262166236146601</v>
+      </c>
+      <c r="I38">
+        <v>1.35158287980894</v>
+      </c>
+      <c r="J38">
+        <v>1.02306454478553</v>
+      </c>
+      <c r="K38">
+        <v>1.3843414991334999</v>
+      </c>
+      <c r="L38" s="3">
+        <v>7.1597298527922001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.63524048057647</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="17">
+        <v>6.1773465011986497</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1.0139792936644001</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1.92404678639406</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="15">
+        <v>8.2326110425421799</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1.01485551496921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.99527485046880304</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2.0347162212090502</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2.2890549333902501</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1.50788373041712</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2.9902867253522798</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1.0118121895379599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1.95340301516244</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="15">
+        <v>3.05083084742729</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1.0118121895379599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.5993044060270301</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.14616121245118</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.8218500123978001</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1.0126024593057701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1.86695694356974</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.2796741244568799</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.0453600977942401</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1.9446483241836701</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1.42114337135075</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.1840172364202</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1.0165202787838801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1.0540201669189999</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.0072253456314599</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2.2687982210293001</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2.46094433785857</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.4443194941181701</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.9588837622425499</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:I11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,337 +3440,1534 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>49</v>
+      <c r="L1" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.0613213706946301</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.14766310463457</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.00085110255521</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1.31228097375062</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1.14050265263073</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1.1254697282435</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1.2415060992895799</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1.35240907089144</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1.27430289643372</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.36360832912459</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="20">
-        <v>1.0613213706946301</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1.14766310463457</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1.00085110255521</v>
-      </c>
-      <c r="F2" s="20">
-        <v>1.31228097375062</v>
-      </c>
-      <c r="G2" s="20">
-        <v>1.14050265263073</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1.1254697282435</v>
-      </c>
-      <c r="I2" s="20">
-        <v>1.2415060992895799</v>
-      </c>
-      <c r="J2" s="20">
-        <v>1.35240907089144</v>
-      </c>
-      <c r="K2" s="20">
-        <v>1.27430289643372</v>
-      </c>
-      <c r="L2" s="20">
-        <v>1.36360832912459</v>
-      </c>
-      <c r="M2" s="21">
-        <v>0.11095774090072801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15">
         <v>1.4861336059965899</v>
       </c>
-      <c r="D4" s="20">
+      <c r="C4" s="15">
         <v>1.65332369812906</v>
       </c>
-      <c r="E4" s="20">
+      <c r="D4" s="15">
         <v>1.0010629976310901</v>
       </c>
-      <c r="F4" s="20">
+      <c r="E4" s="15">
         <v>1.78184038368033</v>
       </c>
-      <c r="G4" s="20">
+      <c r="F4" s="15">
         <v>1.4736908395491699</v>
       </c>
-      <c r="H4" s="20">
+      <c r="G4" s="15">
         <v>1.5028910422214501</v>
       </c>
-      <c r="I4" s="20">
+      <c r="H4" s="15">
         <v>1.8218194786041599</v>
       </c>
-      <c r="J4" s="20">
+      <c r="I4" s="15">
         <v>1.80742219476884</v>
       </c>
-      <c r="K4" s="20">
+      <c r="J4" s="15">
         <v>1.6033877440144799</v>
       </c>
-      <c r="L4" s="20">
+      <c r="K4" s="15">
         <v>2.2134436270600699</v>
       </c>
-      <c r="M4" s="21">
+      <c r="L4" s="16">
         <v>0.11095774090072801</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1.00719503221153</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3.3123815332088702</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.12112478224892401</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.102958156754553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1.0091626498466599</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5.1105544672951</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.121597133178743</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="21">
+        <v>9.4943821026893305E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.99853439201470096</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.59806594881301</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.108743468680546</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="21">
+        <v>9.9747275763337098E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1.00609526424068</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2.1767179430638501</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.112616867788377</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.104061262358959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1.00609526424068</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2.2296887853905298</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.111321183415761</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.101489748943606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1.01109382379331</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.4269116417440699</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.119226459965633</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.118288705082153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.0185065830336799</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.95897133997159101</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.123233644849397</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.12996251253885399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1.00785494520957</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1.09558314523105</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.13016201393430399</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.14128483355987301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1.00234177429979</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.8502904424759501</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.11181512364396599</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="23">
+        <v>9.38884071347411E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1.00234177429979</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1.67825707149527</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.115859119470386</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="23">
+        <v>9.9765518750107404E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:L4">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:E18">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="H1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="L1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1.50788373041712</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1.14616121245118</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1.2796741244568799</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1.42114337135075</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1.0072253456314599</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.4443194941181701</v>
+      </c>
+      <c r="L2" s="16">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1.63524048057647</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.92404678639406</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.99527485046880304</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2.2890549333902501</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.95340301516244</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.5993044060270301</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.86695694356974</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1.9446483241836701</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1.0540201669189999</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2.46094433785857</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1.0995197691601699</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1.2728974762359599</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.99805796946026404</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1.50788373041712</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1.2816470237270801</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1.14616121245118</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1.2796741244568799</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1.42114337135075</v>
-      </c>
-      <c r="K7" s="20">
-        <v>1.0072253456314599</v>
-      </c>
-      <c r="L7" s="20">
-        <v>1.4443194941181701</v>
-      </c>
-      <c r="M7" s="21">
-        <v>6.4743197179621695E-2</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="G8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1.0139792936644001</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17">
+        <v>6.1773465011986497</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="24">
+        <v>7.0745943036005093E-2</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="21">
+        <v>5.8740856555221599E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1.01485551496921</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8.2326110425421799</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="24">
+        <v>6.9010657722859303E-2</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="21">
+        <v>5.2245385885472499E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D11" s="15">
+        <v>2.0347162212090502</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="24">
+        <v>6.3531198394911698E-2</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="21">
+        <v>5.85560691690293E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1.0118121895379599</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2.9902867253522798</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6.5679711828177903E-2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="21">
+        <v>6.0581687903857401E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1.0118121895379599</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3.05083084742729</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="24">
+        <v>6.5861886704089406E-2</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="21">
+        <v>6.1951815642601403E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.0126024593057701</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="D14" s="15">
+        <v>1.8218500123978001</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="24">
+        <v>6.9280965520700705E-2</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="21">
+        <v>6.8404535763325405E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1.0453600977942401</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="24">
+        <v>7.0869873069050696E-2</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="21">
+        <v>7.2738906951397495E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1.0165202787838801</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.1840172364202</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="24">
+        <v>7.5426731112043802E-2</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="21">
+        <v>7.9891036256007603E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1.0027268875183699</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2.2687982210293001</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="24">
+        <v>6.3402185350906998E-2</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="21">
+        <v>5.1542240211979798E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1.9588837622425499</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="24">
+        <v>6.6772912866898196E-2</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="21">
+        <v>5.6712162354232397E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="16">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="16">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="24">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:L4">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D19">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1.0613213706946301</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.14766310463457</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.00085110255521</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1.31228097375062</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1.14050265263073</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1.1254697282435</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1.2415060992895799</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1.35240907089144</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1.27430289643372</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.36360832912459</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1.4861336059965899</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.65332369812906</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.0010629976310901</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.78184038368033</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.4736908395491699</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.5028910422214501</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.8218194786041599</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1.80742219476884</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1.6033877440144799</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2.2134436270600699</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.11095774090072801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.0995197691601699</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.2728974762359599</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.99805796946026404</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1.50788373041712</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1.2816470237270801</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.14616121245118</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1.2796741244568799</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1.42114337135075</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.0072253456314599</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1.4443194941181701</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="18" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15">
         <v>1.63524048057647</v>
       </c>
-      <c r="D9" s="20">
+      <c r="C9" s="15">
         <v>1.92404678639406</v>
       </c>
-      <c r="E9" s="20">
+      <c r="D9" s="15">
         <v>0.99527485046880304</v>
       </c>
-      <c r="F9" s="20">
+      <c r="E9" s="15">
         <v>2.2890549333902501</v>
       </c>
-      <c r="G9" s="20">
+      <c r="F9" s="15">
         <v>1.95340301516244</v>
       </c>
-      <c r="H9" s="20">
+      <c r="G9" s="15">
         <v>1.5993044060270301</v>
       </c>
-      <c r="I9" s="20">
+      <c r="H9" s="15">
         <v>1.86695694356974</v>
       </c>
-      <c r="J9" s="20">
+      <c r="I9" s="15">
         <v>1.9446483241836701</v>
       </c>
-      <c r="K9" s="20">
+      <c r="J9" s="15">
         <v>1.0540201669189999</v>
       </c>
-      <c r="L9" s="20">
+      <c r="K9" s="15">
         <v>2.46094433785857</v>
       </c>
-      <c r="M9" s="21">
+      <c r="L9" s="16">
         <v>6.4743197179621695E-2</v>
       </c>
     </row>
@@ -1554,20 +5003,20 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="11"/>
@@ -1577,21 +5026,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="19" t="s">
-        <v>38</v>
+      <c r="B13" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="19" t="s">
-        <v>38</v>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="19" t="s">
-        <v>38</v>
+      <c r="G13" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="19" t="s">
-        <v>38</v>
+      <c r="I13" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1599,29 +5048,29 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="A14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="17">
         <v>1.00719503221153</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="17">
         <v>3.3123815332088702</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="22">
+      <c r="F14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="17">
         <v>1.0139792936644001</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="17">
         <v>6.1773465011986497</v>
       </c>
       <c r="J14" s="11"/>
@@ -1630,29 +5079,29 @@
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="20">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="15">
         <v>1.0091626498466599</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="15">
         <v>5.1105544672951</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="F15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="15">
         <v>1.01485551496921</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="15">
         <v>8.2326110425421799</v>
       </c>
       <c r="J15" s="11"/>
@@ -1661,29 +5110,29 @@
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="15">
         <v>0.99853439201470096</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="15">
         <v>1.59806594881301</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="15">
         <v>1.0027268875183699</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="H16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="15">
         <v>2.0347162212090502</v>
       </c>
       <c r="J16" s="11"/>
@@ -1692,29 +5141,29 @@
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="A17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="15">
         <v>1.00609526424068</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="C17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15">
         <v>2.1767179430638501</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="15">
         <v>1.0118121895379599</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="H17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="15">
         <v>2.9902867253522798</v>
       </c>
       <c r="J17" s="11"/>
@@ -1723,29 +5172,29 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="20">
+      <c r="A18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="15">
         <v>1.00609526424068</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="15">
         <v>2.2296887853905298</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="20">
+      <c r="F18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="15">
         <v>1.0118121895379599</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="H18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="15">
         <v>3.05083084742729</v>
       </c>
       <c r="J18" s="11"/>
@@ -1754,29 +5203,29 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15">
         <v>1.01109382379331</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15">
         <v>1.4269116417440699</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="F19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="15">
         <v>1.0126024593057701</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="H19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="15">
         <v>1.8218500123978001</v>
       </c>
       <c r="J19" s="11"/>
@@ -1785,29 +5234,29 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="20">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="15">
         <v>1.0185065830336799</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="C20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="15">
         <v>0.95897133997159101</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="F20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="15">
         <v>1.0027268875183699</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="H20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="15">
         <v>1.0453600977942401</v>
       </c>
       <c r="J20" s="11"/>
@@ -1816,29 +5265,29 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="A21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="15">
         <v>1.00785494520957</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="C21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="15">
         <v>1.09558314523105</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="20">
+      <c r="F21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="15">
         <v>1.0165202787838801</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="H21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="15">
         <v>1.1840172364202</v>
       </c>
       <c r="J21" s="11"/>
@@ -1847,29 +5296,29 @@
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="20">
+      <c r="A22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="15">
         <v>1.00234177429979</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="20">
+      <c r="C22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="15">
         <v>1.8502904424759501</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="F22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="15">
         <v>1.0027268875183699</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="H22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="15">
         <v>2.2687982210293001</v>
       </c>
       <c r="J22" s="11"/>
@@ -1878,29 +5327,29 @@
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="20">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15">
         <v>1.00234177429979</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="15">
         <v>1.67825707149527</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="15">
         <v>1</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="H23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="15">
         <v>1.9588837622425499</v>
       </c>
       <c r="J23" s="11"/>
@@ -1909,29 +5358,29 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="21">
+      <c r="A24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="16">
         <v>0.11095774090072801</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="21">
+      <c r="C24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16">
         <v>0.11095774090072801</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="21">
+      <c r="F24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="16">
         <v>6.4743197179621695E-2</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="H24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="16">
         <v>6.4743197179621695E-2</v>
       </c>
       <c r="J24" s="11"/>
@@ -1939,9 +5388,357 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.12112478224892401</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.102958156754553</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="24">
+        <v>7.0745943036005093E-2</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="21">
+        <v>5.8740856555221599E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0.121597133178743</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="21">
+        <v>9.4943821026893305E-2</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="24">
+        <v>6.9010657722859303E-2</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="21">
+        <v>5.2245385885472499E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.108743468680546</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="21">
+        <v>9.9747275763337098E-2</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6.3531198394911698E-2</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="21">
+        <v>5.85560691690293E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.112616867788377</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.104061262358959</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="24">
+        <v>6.5679711828177903E-2</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="21">
+        <v>6.0581687903857401E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0.111321183415761</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.101489748943606</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="24">
+        <v>6.5861886704089406E-2</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="21">
+        <v>6.1951815642601403E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="24">
+        <v>0.119226459965633</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.118288705082153</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="24">
+        <v>6.9280965520700705E-2</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="21">
+        <v>6.8404535763325405E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0.123233644849397</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.12996251253885399</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="24">
+        <v>7.0869873069050696E-2</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="21">
+        <v>7.2738906951397495E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0.13016201393430399</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.14128483355987301</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="24">
+        <v>7.5426731112043802E-2</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="21">
+        <v>7.9891036256007603E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.11181512364396599</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="23">
+        <v>9.38884071347411E-2</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="24">
+        <v>6.3402185350906998E-2</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="21">
+        <v>5.1542240211979798E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0.115859119470386</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="23">
+        <v>9.9765518750107404E-2</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="24">
+        <v>6.6772912866898196E-2</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="21">
+        <v>5.6712162354232397E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.11095774090072801</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="24">
+        <v>6.4743197179621695E-2</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="21">
+        <v>6.4743197179621695E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A12:I24">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1952,8 +5749,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="A1:L9">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -1965,10 +5762,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
@@ -2024,7 +5822,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2065,7 +5863,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
@@ -2142,7 +5940,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2183,7 +5981,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2261,7 +6059,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2302,7 +6100,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +6177,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2420,7 +6218,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
@@ -2498,7 +6296,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2539,7 +6337,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
@@ -2616,7 +6414,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -2657,7 +6455,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
@@ -2697,22 +6495,22 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="E22" s="14" t="s">
+      <c r="C22" s="28"/>
+      <c r="E22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="I22" s="14" t="s">
+      <c r="F22" s="28"/>
+      <c r="I22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="L22" s="14" t="s">
+      <c r="J22" s="28"/>
+      <c r="L22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
@@ -3159,14 +6957,14 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="E36" s="14" t="s">
+      <c r="C36" s="28"/>
+      <c r="E36" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
@@ -3421,13 +7219,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G364"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G363"/>
+      <selection activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,7 +7970,7 @@
         <v>1.00719503221153</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4931,7 +8729,7 @@
         <v>0.99853439201470096</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -5690,7 +9488,7 @@
         <v>1.00609526424068</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -6449,7 +10247,7 @@
         <v>1.00609526424068</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -7208,7 +11006,7 @@
         <v>1.0091626498466599</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -7967,7 +11765,7 @@
         <v>1.01109382379331</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -8726,7 +12524,7 @@
         <v>1.0185065830336799</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -9485,7 +13283,7 @@
         <v>1.00785494520957</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -10244,7 +14042,7 @@
         <v>1.00234177429979</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>18</v>
       </c>
@@ -11003,7 +14801,7 @@
         <v>1.00234177429979</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>19</v>
       </c>
@@ -11739,7 +15537,7 @@
         <v>1.3843414991334999</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -11762,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -11810,6 +15608,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G364">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SIB/www-2012-complete.nt"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="SIB/www-2012-complete.nt"/>
@@ -11817,7 +15620,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="PropertyAndType"/>
+        <filter val="Property"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11825,7 +15628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
@@ -13915,7 +17718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
@@ -15331,1391 +19134,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="A1:L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.12112478224892401</v>
-      </c>
-      <c r="C2">
-        <v>1.0097535898273799</v>
-      </c>
-      <c r="D2">
-        <v>1.31568642682069</v>
-      </c>
-      <c r="E2">
-        <v>1.1494266169121901</v>
-      </c>
-      <c r="F2">
-        <v>1.0714740072906299</v>
-      </c>
-      <c r="G2">
-        <v>1.1189452346676501</v>
-      </c>
-      <c r="H2">
-        <v>1.2483199658644499</v>
-      </c>
-      <c r="I2">
-        <v>1.3491669863678499</v>
-      </c>
-      <c r="J2">
-        <v>0.99881746738023702</v>
-      </c>
-      <c r="K2">
-        <v>1.3554094423813901</v>
-      </c>
-      <c r="L2">
-        <v>1.00719503221153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1.08940544037084</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.108743468680546</v>
-      </c>
-      <c r="D3">
-        <v>1.3119765128634999</v>
-      </c>
-      <c r="E3">
-        <v>1.16252468956008</v>
-      </c>
-      <c r="F3">
-        <v>1.2006240101066601</v>
-      </c>
-      <c r="G3">
-        <v>1.1252353379497499</v>
-      </c>
-      <c r="H3">
-        <v>1.2407637611812801</v>
-      </c>
-      <c r="I3">
-        <v>1.35153398297327</v>
-      </c>
-      <c r="J3">
-        <v>1.2735093447042201</v>
-      </c>
-      <c r="K3">
-        <v>1.3632557457315699</v>
-      </c>
-      <c r="L3">
-        <v>0.99853439201470096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>1.0971328410789101</v>
-      </c>
-      <c r="C4">
-        <v>1.0058080680641399</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.112616867788377</v>
-      </c>
-      <c r="E4">
-        <v>1.1255001710446699</v>
-      </c>
-      <c r="F4">
-        <v>1.20233837806239</v>
-      </c>
-      <c r="G4">
-        <v>1.0847509530750099</v>
-      </c>
-      <c r="H4">
-        <v>1.2502108530086</v>
-      </c>
-      <c r="I4">
-        <v>1.3600628308537399</v>
-      </c>
-      <c r="J4">
-        <v>1.27853049823175</v>
-      </c>
-      <c r="K4">
-        <v>1.1209698295263899</v>
-      </c>
-      <c r="L4">
-        <v>1.00609526424068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1.09424532561826</v>
-      </c>
-      <c r="C5">
-        <v>1.00361444475275</v>
-      </c>
-      <c r="D5">
-        <v>1.13467478990727</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.111321183415761</v>
-      </c>
-      <c r="F5">
-        <v>1.1849046819643201</v>
-      </c>
-      <c r="G5">
-        <v>1.09521962742767</v>
-      </c>
-      <c r="H5">
-        <v>1.2502108530086</v>
-      </c>
-      <c r="I5">
-        <v>1.3600628308537399</v>
-      </c>
-      <c r="J5">
-        <v>1.27853049823175</v>
-      </c>
-      <c r="K5">
-        <v>1.1628704619933901</v>
-      </c>
-      <c r="L5">
-        <v>1.00609526424068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>1.0900959580473899</v>
-      </c>
-      <c r="C6">
-        <v>1.0164687151759699</v>
-      </c>
-      <c r="D6">
-        <v>1.35506954916946</v>
-      </c>
-      <c r="E6">
-        <v>1.1755522795867399</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.121597133178743</v>
-      </c>
-      <c r="G6">
-        <v>1.1185513284803099</v>
-      </c>
-      <c r="H6">
-        <v>1.1994894034247801</v>
-      </c>
-      <c r="I6">
-        <v>1.31397027675738</v>
-      </c>
-      <c r="J6">
-        <v>0.999879051586818</v>
-      </c>
-      <c r="K6">
-        <v>1.3550206661004001</v>
-      </c>
-      <c r="L6">
-        <v>1.0091626498466599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>1.0689621278297601</v>
-      </c>
-      <c r="C7">
-        <v>1.01530361932283</v>
-      </c>
-      <c r="D7">
-        <v>1.1539323143551401</v>
-      </c>
-      <c r="E7">
-        <v>1.14831096053905</v>
-      </c>
-      <c r="F7">
-        <v>1.1532607584157499</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.119226459965633</v>
-      </c>
-      <c r="H7">
-        <v>1.2489923332515001</v>
-      </c>
-      <c r="I7">
-        <v>1.3581473424756101</v>
-      </c>
-      <c r="J7">
-        <v>1.28036672822914</v>
-      </c>
-      <c r="K7">
-        <v>1.0153308545759101</v>
-      </c>
-      <c r="L7">
-        <v>1.01109382379331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1.0686585406112701</v>
-      </c>
-      <c r="C8">
-        <v>1.0146758049289399</v>
-      </c>
-      <c r="D8">
-        <v>1.1626753412358799</v>
-      </c>
-      <c r="E8">
-        <v>1.1527645342983199</v>
-      </c>
-      <c r="F8">
-        <v>1.11346713385131</v>
-      </c>
-      <c r="G8">
-        <v>1.1149235231082999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.123233644849397</v>
-      </c>
-      <c r="I8">
-        <v>1.07739463291822</v>
-      </c>
-      <c r="J8">
-        <v>1.14153754733469</v>
-      </c>
-      <c r="K8">
-        <v>1.1234634936594901</v>
-      </c>
-      <c r="L8">
-        <v>1.0185065830336799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>1.06031984762221</v>
-      </c>
-      <c r="C9">
-        <v>1.00984612497683</v>
-      </c>
-      <c r="D9">
-        <v>1.15581757739604</v>
-      </c>
-      <c r="E9">
-        <v>1.1516046654654599</v>
-      </c>
-      <c r="F9">
-        <v>1.102026302788</v>
-      </c>
-      <c r="G9">
-        <v>1.08140087915559</v>
-      </c>
-      <c r="H9">
-        <v>1.00137773962732</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.13016201393430399</v>
-      </c>
-      <c r="J9">
-        <v>1.1319886969448001</v>
-      </c>
-      <c r="K9">
-        <v>1.1155807200180901</v>
-      </c>
-      <c r="L9">
-        <v>1.00785494520957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>1.0619130878632601</v>
-      </c>
-      <c r="C10">
-        <v>1.0076045072128601</v>
-      </c>
-      <c r="D10">
-        <v>1.40392829526476</v>
-      </c>
-      <c r="E10">
-        <v>1.1417059451052201</v>
-      </c>
-      <c r="F10">
-        <v>1.14626320292381</v>
-      </c>
-      <c r="G10">
-        <v>1.1197027836943401</v>
-      </c>
-      <c r="H10">
-        <v>1.2421199054024501</v>
-      </c>
-      <c r="I10">
-        <v>1.3523781885891999</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.11181512364396599</v>
-      </c>
-      <c r="K10">
-        <v>1.39704205707632</v>
-      </c>
-      <c r="L10">
-        <v>1.00234177429979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>1.0619130878632601</v>
-      </c>
-      <c r="C11">
-        <v>1.0076045072128601</v>
-      </c>
-      <c r="D11">
-        <v>1.1849226365818399</v>
-      </c>
-      <c r="E11">
-        <v>1.1417059451052201</v>
-      </c>
-      <c r="F11">
-        <v>1.14626320292381</v>
-      </c>
-      <c r="G11">
-        <v>1.00537513113071</v>
-      </c>
-      <c r="H11">
-        <v>1.24188522191726</v>
-      </c>
-      <c r="I11">
-        <v>1.3523781885891999</v>
-      </c>
-      <c r="J11">
-        <v>1.0659250167371901</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.115859119470386</v>
-      </c>
-      <c r="L11">
-        <v>1.00234177429979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>1.0613213706946301</v>
-      </c>
-      <c r="C12">
-        <v>1.00085110255521</v>
-      </c>
-      <c r="D12">
-        <v>1.31228097375062</v>
-      </c>
-      <c r="E12">
-        <v>1.14050265263073</v>
-      </c>
-      <c r="F12">
-        <v>1.14766310463457</v>
-      </c>
-      <c r="G12">
-        <v>1.1254697282435</v>
-      </c>
-      <c r="H12">
-        <v>1.2415060992895799</v>
-      </c>
-      <c r="I12">
-        <v>1.35240907089144</v>
-      </c>
-      <c r="J12">
-        <v>1.27430289643372</v>
-      </c>
-      <c r="K12">
-        <v>1.36360832912459</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.11095774090072801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7.0745943036005093E-2</v>
-      </c>
-      <c r="C15">
-        <v>1.0154477061976199</v>
-      </c>
-      <c r="D15">
-        <v>1.5499743813932401</v>
-      </c>
-      <c r="E15">
-        <v>1.2581292748637301</v>
-      </c>
-      <c r="F15">
-        <v>1.1984150186445099</v>
-      </c>
-      <c r="G15">
-        <v>1.1388763896340199</v>
-      </c>
-      <c r="H15">
-        <v>1.2953372883015599</v>
-      </c>
-      <c r="I15">
-        <v>1.42882798061488</v>
-      </c>
-      <c r="J15">
-        <v>1.0154918155604999</v>
-      </c>
-      <c r="K15">
-        <v>1.4449977014447799</v>
-      </c>
-      <c r="L15">
-        <v>1.0139792936644001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>1.1341740139035399</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.3531198394911698E-2</v>
-      </c>
-      <c r="D16">
-        <v>1.5113820750209099</v>
-      </c>
-      <c r="E16">
-        <v>1.3068308263488999</v>
-      </c>
-      <c r="F16">
-        <v>1.3380080867619699</v>
-      </c>
-      <c r="G16">
-        <v>1.1465064479037399</v>
-      </c>
-      <c r="H16">
-        <v>1.2826767556482499</v>
-      </c>
-      <c r="I16">
-        <v>1.42507935989609</v>
-      </c>
-      <c r="J16">
-        <v>1.00747374154101</v>
-      </c>
-      <c r="K16">
-        <v>1.44799953400813</v>
-      </c>
-      <c r="L16">
-        <v>1.0027268875183699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>1.1408214604757301</v>
-      </c>
-      <c r="C17">
-        <v>1.0063291074767999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6.5679711828177903E-2</v>
-      </c>
-      <c r="E17">
-        <v>1.1601575445986601</v>
-      </c>
-      <c r="F17">
-        <v>1.35187728906547</v>
-      </c>
-      <c r="G17">
-        <v>1.09330655736197</v>
-      </c>
-      <c r="H17">
-        <v>1.29275881904934</v>
-      </c>
-      <c r="I17">
-        <v>1.4358232111593201</v>
-      </c>
-      <c r="J17">
-        <v>1.01331319403774</v>
-      </c>
-      <c r="K17">
-        <v>1.1253348840482</v>
-      </c>
-      <c r="L17">
-        <v>1.0118121895379599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>1.1313205783092</v>
-      </c>
-      <c r="C18">
-        <v>1.00415648416188</v>
-      </c>
-      <c r="D18">
-        <v>1.23555281427816</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6.5861886704089406E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.32452025947983</v>
-      </c>
-      <c r="G18">
-        <v>1.1062967234046599</v>
-      </c>
-      <c r="H18">
-        <v>1.29307705895443</v>
-      </c>
-      <c r="I18">
-        <v>1.4351020907425101</v>
-      </c>
-      <c r="J18">
-        <v>1.01288870608446</v>
-      </c>
-      <c r="K18">
-        <v>1.1681389789854499</v>
-      </c>
-      <c r="L18">
-        <v>1.0118121895379599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>1.25844045479009</v>
-      </c>
-      <c r="C19">
-        <v>1.0206105585090299</v>
-      </c>
-      <c r="D19">
-        <v>1.5651455566847701</v>
-      </c>
-      <c r="E19">
-        <v>1.32562018857066</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.9010657722859303E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.13928758690344</v>
-      </c>
-      <c r="H19">
-        <v>1.29577237808517</v>
-      </c>
-      <c r="I19">
-        <v>1.44036982800155</v>
-      </c>
-      <c r="J19">
-        <v>1.0159625126891001</v>
-      </c>
-      <c r="K19">
-        <v>1.4454053091688199</v>
-      </c>
-      <c r="L19">
-        <v>1.01485551496921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>1.10799672534755</v>
-      </c>
-      <c r="C20">
-        <v>1.01040730475044</v>
-      </c>
-      <c r="D20">
-        <v>1.25746371365659</v>
-      </c>
-      <c r="E20">
-        <v>1.2893376873306801</v>
-      </c>
-      <c r="F20">
-        <v>1.2801606371352501</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6.9280965520700705E-2</v>
-      </c>
-      <c r="H20">
-        <v>1.28894209404427</v>
-      </c>
-      <c r="I20">
-        <v>1.42938290338653</v>
-      </c>
-      <c r="J20">
-        <v>1.01271433850597</v>
-      </c>
-      <c r="K20">
-        <v>1.0098060371781199</v>
-      </c>
-      <c r="L20">
-        <v>1.0126024593057701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>1.07118972572255</v>
-      </c>
-      <c r="C21">
-        <v>0.99966952441855905</v>
-      </c>
-      <c r="D21">
-        <v>1.32051409799256</v>
-      </c>
-      <c r="E21">
-        <v>1.28390637572248</v>
-      </c>
-      <c r="F21">
-        <v>1.0903654706754999</v>
-      </c>
-      <c r="G21">
-        <v>1.0771804687222599</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7.0869873069050696E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.10658109124479</v>
-      </c>
-      <c r="J21">
-        <v>1.0077620383524799</v>
-      </c>
-      <c r="K21">
-        <v>1.1495027342733299</v>
-      </c>
-      <c r="L21">
-        <v>1.0027268875183699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>1.09959688045138</v>
-      </c>
-      <c r="C22">
-        <v>1.01887061219159</v>
-      </c>
-      <c r="D22">
-        <v>1.39562942299828</v>
-      </c>
-      <c r="E22">
-        <v>1.30011905038522</v>
-      </c>
-      <c r="F22">
-        <v>1.1913824507487401</v>
-      </c>
-      <c r="G22">
-        <v>1.0972938362024001</v>
-      </c>
-      <c r="H22">
-        <v>1.01579620475087</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7.5426731112043802E-2</v>
-      </c>
-      <c r="J22">
-        <v>1.0057632013717701</v>
-      </c>
-      <c r="K22">
-        <v>1.1643363644432501</v>
-      </c>
-      <c r="L22">
-        <v>1.0165202787838801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>1.1041228978508499</v>
-      </c>
-      <c r="C23">
-        <v>0.99875325398909698</v>
-      </c>
-      <c r="D23">
-        <v>1.41178376468588</v>
-      </c>
-      <c r="E23">
-        <v>1.2066985156060499</v>
-      </c>
-      <c r="F23">
-        <v>1.2794366888561299</v>
-      </c>
-      <c r="G23">
-        <v>1.1465064479037399</v>
-      </c>
-      <c r="H23">
-        <v>1.2821881550255601</v>
-      </c>
-      <c r="I23">
-        <v>1.4253917399893199</v>
-      </c>
-      <c r="J23" s="3">
-        <v>6.3402185350906998E-2</v>
-      </c>
-      <c r="K23">
-        <v>1.4899554042393399</v>
-      </c>
-      <c r="L23">
-        <v>1.0027268875183699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>1.0995197691601699</v>
-      </c>
-      <c r="C24">
-        <v>0.99805796946026404</v>
-      </c>
-      <c r="D24">
-        <v>1.25069861790796</v>
-      </c>
-      <c r="E24">
-        <v>1.2816470237270801</v>
-      </c>
-      <c r="F24">
-        <v>1.2728974762359599</v>
-      </c>
-      <c r="G24">
-        <v>1.00665901818162</v>
-      </c>
-      <c r="H24">
-        <v>1.2811263391200201</v>
-      </c>
-      <c r="I24">
-        <v>1.42298566547906</v>
-      </c>
-      <c r="J24">
-        <v>1.0776294040871901</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6.6772912866898196E-2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>1.0995197691601699</v>
-      </c>
-      <c r="C25">
-        <v>0.99805796946026404</v>
-      </c>
-      <c r="D25">
-        <v>1.50788373041712</v>
-      </c>
-      <c r="E25">
-        <v>1.2816470237270801</v>
-      </c>
-      <c r="F25">
-        <v>1.2728974762359599</v>
-      </c>
-      <c r="G25">
-        <v>1.14616121245118</v>
-      </c>
-      <c r="H25">
-        <v>1.2796741244568799</v>
-      </c>
-      <c r="I25">
-        <v>1.42114337135075</v>
-      </c>
-      <c r="J25">
-        <v>1.0072253456314599</v>
-      </c>
-      <c r="K25">
-        <v>1.4443194941181701</v>
-      </c>
-      <c r="L25" s="3">
-        <v>6.4743197179621695E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7.5787050609715204E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.02676358858496</v>
-      </c>
-      <c r="D28">
-        <v>1.48488183343358</v>
-      </c>
-      <c r="E28">
-        <v>1.2272107221484001</v>
-      </c>
-      <c r="F28">
-        <v>1.21946614887923</v>
-      </c>
-      <c r="G28">
-        <v>1.1306496899134499</v>
-      </c>
-      <c r="H28">
-        <v>1.23856433576228</v>
-      </c>
-      <c r="I28">
-        <v>1.35711802499709</v>
-      </c>
-      <c r="J28">
-        <v>1.0295376173511701</v>
-      </c>
-      <c r="K28">
-        <v>1.38925041573123</v>
-      </c>
-      <c r="L28">
-        <v>1.0118223686925401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>1.2113948516261701</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7.3063997233869193E-2</v>
-      </c>
-      <c r="D29">
-        <v>1.4528854558973201</v>
-      </c>
-      <c r="E29">
-        <v>1.27554004164617</v>
-      </c>
-      <c r="F29">
-        <v>1.4910375004803</v>
-      </c>
-      <c r="G29">
-        <v>1.1319384679367701</v>
-      </c>
-      <c r="H29">
-        <v>1.2385398405824599</v>
-      </c>
-      <c r="I29">
-        <v>1.3632671875262199</v>
-      </c>
-      <c r="J29">
-        <v>1.21096658348256</v>
-      </c>
-      <c r="K29">
-        <v>1.3843165228974701</v>
-      </c>
-      <c r="L29">
-        <v>1.0073780913242001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>1.2170809128895801</v>
-      </c>
-      <c r="C30">
-        <v>0.99921242651813402</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.4315501300696904E-2</v>
-      </c>
-      <c r="E30">
-        <v>1.1368614102430199</v>
-      </c>
-      <c r="F30">
-        <v>1.5057121404653599</v>
-      </c>
-      <c r="G30">
-        <v>1.08012556602634</v>
-      </c>
-      <c r="H30">
-        <v>1.23850279139297</v>
-      </c>
-      <c r="I30">
-        <v>1.3642846453208799</v>
-      </c>
-      <c r="J30">
-        <v>1.03938622814708</v>
-      </c>
-      <c r="K30">
-        <v>1.1038518186341599</v>
-      </c>
-      <c r="L30">
-        <v>1.01178775391664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>1.2055242950829801</v>
-      </c>
-      <c r="C31">
-        <v>0.99746618123259401</v>
-      </c>
-      <c r="D31">
-        <v>1.21234285160785</v>
-      </c>
-      <c r="E31" s="3">
-        <v>7.3813815923523804E-2</v>
-      </c>
-      <c r="F31">
-        <v>1.4801201934756201</v>
-      </c>
-      <c r="G31">
-        <v>1.0912039132817499</v>
-      </c>
-      <c r="H31">
-        <v>1.2391971825173</v>
-      </c>
-      <c r="I31">
-        <v>1.3646039485109001</v>
-      </c>
-      <c r="J31">
-        <v>1.03918536470164</v>
-      </c>
-      <c r="K31">
-        <v>1.13878066782731</v>
-      </c>
-      <c r="L31">
-        <v>1.01183325804285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>1.2871678322111599</v>
-      </c>
-      <c r="C32">
-        <v>1.0192635492092901</v>
-      </c>
-      <c r="D32">
-        <v>1.4707478998701899</v>
-      </c>
-      <c r="E32">
-        <v>1.28193895853753</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7.1862323706397294E-2</v>
-      </c>
-      <c r="G32">
-        <v>1.1256324842510601</v>
-      </c>
-      <c r="H32">
-        <v>1.3365839991828301</v>
-      </c>
-      <c r="I32">
-        <v>1.45172811623641</v>
-      </c>
-      <c r="J32">
-        <v>1.1490250021533299</v>
-      </c>
-      <c r="K32">
-        <v>1.3824132623418299</v>
-      </c>
-      <c r="L32">
-        <v>1.01268245637152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>1.17275984825244</v>
-      </c>
-      <c r="C33">
-        <v>1.01631871127591</v>
-      </c>
-      <c r="D33">
-        <v>1.23684232208754</v>
-      </c>
-      <c r="E33">
-        <v>1.25300273155032</v>
-      </c>
-      <c r="F33">
-        <v>1.3762948153586301</v>
-      </c>
-      <c r="G33" s="3">
-        <v>7.7740263249035504E-2</v>
-      </c>
-      <c r="H33">
-        <v>1.2336712001901999</v>
-      </c>
-      <c r="I33">
-        <v>1.35886791799678</v>
-      </c>
-      <c r="J33">
-        <v>1.02761058901227</v>
-      </c>
-      <c r="K33">
-        <v>1.0064783926897201</v>
-      </c>
-      <c r="L33">
-        <v>1.01080749251158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>1.1509089651744</v>
-      </c>
-      <c r="C34">
-        <v>1.0564663559244201</v>
-      </c>
-      <c r="D34">
-        <v>1.2836162499016901</v>
-      </c>
-      <c r="E34">
-        <v>1.24396787043205</v>
-      </c>
-      <c r="F34">
-        <v>1.2666114024981701</v>
-      </c>
-      <c r="G34">
-        <v>1.1215490951392799</v>
-      </c>
-      <c r="H34" s="3">
-        <v>8.0462982471179695E-2</v>
-      </c>
-      <c r="I34">
-        <v>1.0922031231106899</v>
-      </c>
-      <c r="J34">
-        <v>1.0257412799875201</v>
-      </c>
-      <c r="K34">
-        <v>1.2009088172328899</v>
-      </c>
-      <c r="L34">
-        <v>1.0021104456990899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>1.14075556294467</v>
-      </c>
-      <c r="C35">
-        <v>1.0683951743348901</v>
-      </c>
-      <c r="D35">
-        <v>1.3438268235533199</v>
-      </c>
-      <c r="E35">
-        <v>1.25397362551969</v>
-      </c>
-      <c r="F35">
-        <v>1.20598795660119</v>
-      </c>
-      <c r="G35">
-        <v>1.10962068322689</v>
-      </c>
-      <c r="H35">
-        <v>1.00877016240898</v>
-      </c>
-      <c r="I35" s="3">
-        <v>8.4572539252841902E-2</v>
-      </c>
-      <c r="J35">
-        <v>1.0122918480168499</v>
-      </c>
-      <c r="K35">
-        <v>1.18375909362354</v>
-      </c>
-      <c r="L35">
-        <v>1.0095205617565799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>1.3277918335429999</v>
-      </c>
-      <c r="C36">
-        <v>1.3786417935570801</v>
-      </c>
-      <c r="D36">
-        <v>2.24950269350912</v>
-      </c>
-      <c r="E36">
-        <v>1.72823646908283</v>
-      </c>
-      <c r="F36">
-        <v>1.76915760414458</v>
-      </c>
-      <c r="G36">
-        <v>1.3530347841916499</v>
-      </c>
-      <c r="H36">
-        <v>1.60559997857523</v>
-      </c>
-      <c r="I36">
-        <v>1.8655327455412101</v>
-      </c>
-      <c r="J36" s="3">
-        <v>7.0445368670496097E-2</v>
-      </c>
-      <c r="K36">
-        <v>1.6569763638422199</v>
-      </c>
-      <c r="L36">
-        <v>0.997938991896688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>1.16390283531199</v>
-      </c>
-      <c r="C37">
-        <v>1.0088062825547499</v>
-      </c>
-      <c r="D37">
-        <v>1.2296237474780201</v>
-      </c>
-      <c r="E37">
-        <v>1.2451786110399301</v>
-      </c>
-      <c r="F37">
-        <v>1.36713521623488</v>
-      </c>
-      <c r="G37">
-        <v>1.00871197725413</v>
-      </c>
-      <c r="H37">
-        <v>1.22638611327309</v>
-      </c>
-      <c r="I37">
-        <v>1.35152103955322</v>
-      </c>
-      <c r="J37">
-        <v>1.0787488064191499</v>
-      </c>
-      <c r="K37" s="3">
-        <v>7.59619168983688E-2</v>
-      </c>
-      <c r="L37">
-        <v>1.00120739460856</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <v>1.1653820094548399</v>
-      </c>
-      <c r="C38">
-        <v>1.0152992377199099</v>
-      </c>
-      <c r="D38">
-        <v>1.4523029850212099</v>
-      </c>
-      <c r="E38">
-        <v>1.2521185095392899</v>
-      </c>
-      <c r="F38">
-        <v>1.3714392573166301</v>
-      </c>
-      <c r="G38">
-        <v>1.13295339549023</v>
-      </c>
-      <c r="H38">
-        <v>1.2262166236146601</v>
-      </c>
-      <c r="I38">
-        <v>1.35158287980894</v>
-      </c>
-      <c r="J38">
-        <v>1.02306454478553</v>
-      </c>
-      <c r="K38">
-        <v>1.3843414991334999</v>
-      </c>
-      <c r="L38" s="3">
-        <v>7.1597298527922001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>